--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna3-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna3-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,7 +79,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Efna3</t>
@@ -89,15 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +534,46 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H2">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I2">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J2">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0147745</v>
+        <v>0.12048</v>
       </c>
       <c r="N2">
-        <v>0.029549</v>
+        <v>0.24096</v>
       </c>
       <c r="O2">
-        <v>0.001149981856525043</v>
+        <v>0.0104458432059687</v>
       </c>
       <c r="P2">
-        <v>0.0007958682187241618</v>
+        <v>0.007022898040146284</v>
       </c>
       <c r="Q2">
-        <v>0.00336208522</v>
+        <v>0.02176115784</v>
       </c>
       <c r="R2">
-        <v>0.01344834088</v>
+        <v>0.08704463136</v>
       </c>
       <c r="S2">
-        <v>0.0009869292048727556</v>
+        <v>0.007609284165587499</v>
       </c>
       <c r="T2">
-        <v>0.0006378078518238735</v>
+        <v>0.005115836586833481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +596,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H3">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I3">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J3">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +620,22 @@
         <v>33.729219</v>
       </c>
       <c r="O3">
-        <v>0.8751111686748507</v>
+        <v>0.9747956317335664</v>
       </c>
       <c r="P3">
-        <v>0.9084575939790569</v>
+        <v>0.9830547228202391</v>
       </c>
       <c r="Q3">
-        <v>2.55847369188</v>
+        <v>2.0307294667965</v>
       </c>
       <c r="R3">
-        <v>15.35084215128</v>
+        <v>12.184376800779</v>
       </c>
       <c r="S3">
-        <v>0.7510316488690885</v>
+        <v>0.7100907814694916</v>
       </c>
       <c r="T3">
-        <v>0.7280368443631587</v>
+        <v>0.7161071240268884</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,51 +658,51 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H4">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I4">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J4">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04370233333333334</v>
+        <v>0.1702215</v>
       </c>
       <c r="N4">
-        <v>0.131107</v>
+        <v>0.340443</v>
       </c>
       <c r="O4">
-        <v>0.003401596698442785</v>
+        <v>0.01475852506046481</v>
       </c>
       <c r="P4">
-        <v>0.003531215762031496</v>
+        <v>0.009922379139614548</v>
       </c>
       <c r="Q4">
-        <v>0.009944902973333333</v>
+        <v>0.03074549244075</v>
       </c>
       <c r="R4">
-        <v>0.05966941784</v>
+        <v>0.122981969763</v>
       </c>
       <c r="S4">
-        <v>0.002919293992199451</v>
+        <v>0.01075086125989834</v>
       </c>
       <c r="T4">
-        <v>0.002829912146910981</v>
+        <v>0.007227966281255606</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -720,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +720,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.22756</v>
+        <v>0.067331</v>
       </c>
       <c r="H5">
-        <v>0.45512</v>
+        <v>0.134662</v>
       </c>
       <c r="I5">
-        <v>0.8582128485531142</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J5">
-        <v>0.8013988205815389</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,33 +738,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.4000015</v>
+        <v>0.12048</v>
       </c>
       <c r="N5">
-        <v>2.800003</v>
+        <v>0.24096</v>
       </c>
       <c r="O5">
-        <v>0.1089699363164807</v>
+        <v>0.0104458432059687</v>
       </c>
       <c r="P5">
-        <v>0.07541484991141187</v>
+        <v>0.007022898040146284</v>
       </c>
       <c r="Q5">
-        <v>0.31858434134</v>
+        <v>0.00811203888</v>
       </c>
       <c r="R5">
-        <v>1.27433736536</v>
+        <v>0.03244815552</v>
       </c>
       <c r="S5">
-        <v>0.09351939945281838</v>
+        <v>0.002836559040381196</v>
       </c>
       <c r="T5">
-        <v>0.06043737177333924</v>
+        <v>0.001907061453312803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -782,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +782,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.22756</v>
+        <v>0.067331</v>
       </c>
       <c r="H6">
-        <v>0.45512</v>
+        <v>0.134662</v>
       </c>
       <c r="I6">
-        <v>0.8582128485531142</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J6">
-        <v>0.8013988205815389</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +800,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.114006</v>
+        <v>11.243073</v>
       </c>
       <c r="N6">
-        <v>0.342018</v>
+        <v>33.729219</v>
       </c>
       <c r="O6">
-        <v>0.008873723749365056</v>
+        <v>0.9747956317335664</v>
       </c>
       <c r="P6">
-        <v>0.00921186017907883</v>
+        <v>0.9830547228202391</v>
       </c>
       <c r="Q6">
-        <v>0.02594320536</v>
+        <v>0.7570073481630001</v>
       </c>
       <c r="R6">
-        <v>0.15565923216</v>
+        <v>4.542044088978</v>
       </c>
       <c r="S6">
-        <v>0.007615543736216005</v>
+        <v>0.2647048502640749</v>
       </c>
       <c r="T6">
-        <v>0.007382373882875819</v>
+        <v>0.2669475987933508</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -844,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,418 +844,46 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.22756</v>
+        <v>0.067331</v>
       </c>
       <c r="H7">
-        <v>0.45512</v>
+        <v>0.134662</v>
       </c>
       <c r="I7">
-        <v>0.8582128485531142</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J7">
-        <v>0.8013988205815389</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.03203666666666666</v>
+        <v>0.1702215</v>
       </c>
       <c r="N7">
-        <v>0.09611</v>
+        <v>0.340443</v>
       </c>
       <c r="O7">
-        <v>0.002493592704335665</v>
+        <v>0.01475852506046481</v>
       </c>
       <c r="P7">
-        <v>0.002588611949696409</v>
+        <v>0.009922379139614548</v>
       </c>
       <c r="Q7">
-        <v>0.007290263866666665</v>
+        <v>0.0114611838165</v>
       </c>
       <c r="R7">
-        <v>0.0437415832</v>
+        <v>0.045844735266</v>
       </c>
       <c r="S7">
-        <v>0.002140033297919175</v>
+        <v>0.004007663800566466</v>
       </c>
       <c r="T7">
-        <v>0.00207451056342998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.03759566666666666</v>
-      </c>
-      <c r="H8">
-        <v>0.112787</v>
-      </c>
-      <c r="I8">
-        <v>0.1417871514468859</v>
-      </c>
-      <c r="J8">
-        <v>0.1986011794184611</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.5</v>
-      </c>
-      <c r="M8">
-        <v>0.0147745</v>
-      </c>
-      <c r="N8">
-        <v>0.029549</v>
-      </c>
-      <c r="O8">
-        <v>0.001149981856525043</v>
-      </c>
-      <c r="P8">
-        <v>0.0007958682187241618</v>
-      </c>
-      <c r="Q8">
-        <v>0.0005554571771666666</v>
-      </c>
-      <c r="R8">
-        <v>0.003332743063</v>
-      </c>
-      <c r="S8">
-        <v>0.0001630526516522873</v>
-      </c>
-      <c r="T8">
-        <v>0.0001580603669002883</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.03759566666666666</v>
-      </c>
-      <c r="H9">
-        <v>0.112787</v>
-      </c>
-      <c r="I9">
-        <v>0.1417871514468859</v>
-      </c>
-      <c r="J9">
-        <v>0.1986011794184611</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>11.243073</v>
-      </c>
-      <c r="N9">
-        <v>33.729219</v>
-      </c>
-      <c r="O9">
-        <v>0.8751111686748507</v>
-      </c>
-      <c r="P9">
-        <v>0.9084575939790569</v>
-      </c>
-      <c r="Q9">
-        <v>0.4226908248169999</v>
-      </c>
-      <c r="R9">
-        <v>3.804217423353</v>
-      </c>
-      <c r="S9">
-        <v>0.1240795198057624</v>
-      </c>
-      <c r="T9">
-        <v>0.1804207496158982</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.03759566666666666</v>
-      </c>
-      <c r="H10">
-        <v>0.112787</v>
-      </c>
-      <c r="I10">
-        <v>0.1417871514468859</v>
-      </c>
-      <c r="J10">
-        <v>0.1986011794184611</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.04370233333333334</v>
-      </c>
-      <c r="N10">
-        <v>0.131107</v>
-      </c>
-      <c r="O10">
-        <v>0.003401596698442785</v>
-      </c>
-      <c r="P10">
-        <v>0.003531215762031496</v>
-      </c>
-      <c r="Q10">
-        <v>0.001643018356555555</v>
-      </c>
-      <c r="R10">
-        <v>0.014787165209</v>
-      </c>
-      <c r="S10">
-        <v>0.0004823027062433343</v>
-      </c>
-      <c r="T10">
-        <v>0.000701303615120515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.03759566666666666</v>
-      </c>
-      <c r="H11">
-        <v>0.112787</v>
-      </c>
-      <c r="I11">
-        <v>0.1417871514468859</v>
-      </c>
-      <c r="J11">
-        <v>0.1986011794184611</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.4000015</v>
-      </c>
-      <c r="N11">
-        <v>2.800003</v>
-      </c>
-      <c r="O11">
-        <v>0.1089699363164807</v>
-      </c>
-      <c r="P11">
-        <v>0.07541484991141187</v>
-      </c>
-      <c r="Q11">
-        <v>0.05263398972683333</v>
-      </c>
-      <c r="R11">
-        <v>0.315803938361</v>
-      </c>
-      <c r="S11">
-        <v>0.01545053686366237</v>
-      </c>
-      <c r="T11">
-        <v>0.01497747813807263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.03759566666666666</v>
-      </c>
-      <c r="H12">
-        <v>0.112787</v>
-      </c>
-      <c r="I12">
-        <v>0.1417871514468859</v>
-      </c>
-      <c r="J12">
-        <v>0.1986011794184611</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.114006</v>
-      </c>
-      <c r="N12">
-        <v>0.342018</v>
-      </c>
-      <c r="O12">
-        <v>0.008873723749365056</v>
-      </c>
-      <c r="P12">
-        <v>0.00921186017907883</v>
-      </c>
-      <c r="Q12">
-        <v>0.004286131573999999</v>
-      </c>
-      <c r="R12">
-        <v>0.03857518416599999</v>
-      </c>
-      <c r="S12">
-        <v>0.001258180013149052</v>
-      </c>
-      <c r="T12">
-        <v>0.001829486296203012</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.03759566666666666</v>
-      </c>
-      <c r="H13">
-        <v>0.112787</v>
-      </c>
-      <c r="I13">
-        <v>0.1417871514468859</v>
-      </c>
-      <c r="J13">
-        <v>0.1986011794184611</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.03203666666666666</v>
-      </c>
-      <c r="N13">
-        <v>0.09611</v>
-      </c>
-      <c r="O13">
-        <v>0.002493592704335665</v>
-      </c>
-      <c r="P13">
-        <v>0.002588611949696409</v>
-      </c>
-      <c r="Q13">
-        <v>0.001204439841111111</v>
-      </c>
-      <c r="R13">
-        <v>0.01083995857</v>
-      </c>
-      <c r="S13">
-        <v>0.0003535594064164908</v>
-      </c>
-      <c r="T13">
-        <v>0.000514101386266429</v>
+        <v>0.002694412858358942</v>
       </c>
     </row>
   </sheetData>
